--- a/biology/Botanique/Ancien_jardin_botanique_de_Munich/Ancien_jardin_botanique_de_Munich.xlsx
+++ b/biology/Botanique/Ancien_jardin_botanique_de_Munich/Ancien_jardin_botanique_de_Munich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien Jardin botanique de Munich est situé sur la Lenbachplatz à Munich dans le quartier de la Königsplatz à Maxvorstadt. Il est maintenant un parc. Au sud,  se trouve le quartier du Palais de Justice, et au nord-ouest, l'Hôtel Charles. Le domaine occupe une superficie d'environ quatre hectares[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien Jardin botanique de Munich est situé sur la Lenbachplatz à Munich dans le quartier de la Königsplatz à Maxvorstadt. Il est maintenant un parc. Au sud,  se trouve le quartier du Palais de Justice, et au nord-ouest, l'Hôtel Charles. Le domaine occupe une superficie d'environ quatre hectares.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été aménagé de 1804 à 1812 selon les plans de l'architecte paysagiste Friedrich Ludwig von Sckell. Il a ouvert en mai 1812. À cette époque, le jardin était sous la direction de Franz von Paula Schrank. Le portail d'entrée classique de la Lenbachplatz, construit en 1812 sur un dessin du maître d'œuvre portugais Emanuel Joseph d'Herigoyen, est le point de repère du jardin qui existe encore aujourd'hui[2]. En 1854, le Palais des Glaces a été construit sur le côté nord du parc à l'occasion de l'Exposition industrielle internationale de Munich. Celui ci a été victime d'un important incendie en 1931. Dans les années 1931/32 et 1932/33, une patinoire a été construite à la place du Palais des Glaces, sur laquelle s'est tenue la finale du championnat allemand de hockey sur glace de 1933[3].
-Après l'aménagement du nouveau Jardin botanique à Neuhausen-Nymphenburg aux portes de Munich en 1914, l'ancien jardin botanique a été réaménagé en parc en 1937 d'après un croquis de Paul Troost et des plans de l'architecte Oswald Bieber (de) et du sculpteur Joseph Wackerle[4]. À cette occasion la fontaine de Neptune a été construite au milieu du complexe ainsi qu'un café de style historique, aujourd'hui Park Café. Un petit bâtiment d'exposition a également été édifié, il sera gravement détruit pendant la Seconde Guerre mondiale et reconstruit plus tard par des artistes de Munich qui se sont aidés. Le bâtiment, connu sous le nom de Kunstpavillon, est aujourd'hui utilisé par l'Association Gestion des Expositions Pavillon pour les expositions d'art visuel actuel[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été aménagé de 1804 à 1812 selon les plans de l'architecte paysagiste Friedrich Ludwig von Sckell. Il a ouvert en mai 1812. À cette époque, le jardin était sous la direction de Franz von Paula Schrank. Le portail d'entrée classique de la Lenbachplatz, construit en 1812 sur un dessin du maître d'œuvre portugais Emanuel Joseph d'Herigoyen, est le point de repère du jardin qui existe encore aujourd'hui. En 1854, le Palais des Glaces a été construit sur le côté nord du parc à l'occasion de l'Exposition industrielle internationale de Munich. Celui ci a été victime d'un important incendie en 1931. Dans les années 1931/32 et 1932/33, une patinoire a été construite à la place du Palais des Glaces, sur laquelle s'est tenue la finale du championnat allemand de hockey sur glace de 1933.
+Après l'aménagement du nouveau Jardin botanique à Neuhausen-Nymphenburg aux portes de Munich en 1914, l'ancien jardin botanique a été réaménagé en parc en 1937 d'après un croquis de Paul Troost et des plans de l'architecte Oswald Bieber (de) et du sculpteur Joseph Wackerle. À cette occasion la fontaine de Neptune a été construite au milieu du complexe ainsi qu'un café de style historique, aujourd'hui Park Café. Un petit bâtiment d'exposition a également été édifié, il sera gravement détruit pendant la Seconde Guerre mondiale et reconstruit plus tard par des artistes de Munich qui se sont aidés. Le bâtiment, connu sous le nom de Kunstpavillon, est aujourd'hui utilisé par l'Association Gestion des Expositions Pavillon pour les expositions d'art visuel actuel.
 De nombreux arbres exotiques rappellent encore la fonction originelle de l'Ancien Jardin Botanique.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Portail d'entrée
